--- a/Team-Data/2008-09/2-14-2008-09.xlsx
+++ b/Team-Data/2008-09/2-14-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
         <v>9</v>
@@ -780,7 +847,7 @@
         <v>15</v>
       </c>
       <c r="AP2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
@@ -795,13 +862,13 @@
         <v>23</v>
       </c>
       <c r="AU2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX2" t="n">
         <v>19</v>
@@ -816,7 +883,7 @@
         <v>19</v>
       </c>
       <c r="BB2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-14-2008-09</t>
+          <t>2009-02-14</t>
         </is>
       </c>
     </row>
@@ -848,58 +915,58 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="n">
         <v>11</v>
       </c>
       <c r="G3" t="n">
-        <v>0.796</v>
+        <v>0.8</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J3" t="n">
         <v>77.40000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.484</v>
+        <v>0.483</v>
       </c>
       <c r="L3" t="n">
         <v>6.4</v>
       </c>
       <c r="M3" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.387</v>
+        <v>0.384</v>
       </c>
       <c r="O3" t="n">
         <v>20.1</v>
       </c>
       <c r="P3" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.78</v>
+        <v>0.776</v>
       </c>
       <c r="R3" t="n">
         <v>10.9</v>
       </c>
       <c r="S3" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T3" t="n">
-        <v>43</v>
+        <v>42.8</v>
       </c>
       <c r="U3" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V3" t="n">
         <v>15.8</v>
@@ -908,34 +975,34 @@
         <v>8.300000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.5</v>
+        <v>101.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH3" t="n">
         <v>11</v>
@@ -950,7 +1017,7 @@
         <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM3" t="n">
         <v>19</v>
@@ -962,16 +1029,16 @@
         <v>9</v>
       </c>
       <c r="AP3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR3" t="n">
         <v>16</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AT3" t="n">
         <v>5</v>
@@ -980,22 +1047,22 @@
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ3" t="n">
         <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-14-2008-09</t>
+          <t>2009-02-14</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-1.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
         <v>20</v>
@@ -1144,7 +1211,7 @@
         <v>24</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ4" t="n">
         <v>28</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-14-2008-09</t>
+          <t>2009-02-14</t>
         </is>
       </c>
     </row>
@@ -1212,85 +1279,85 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" t="n">
         <v>30</v>
       </c>
       <c r="G5" t="n">
-        <v>0.423</v>
+        <v>0.434</v>
       </c>
       <c r="H5" t="n">
         <v>48.7</v>
       </c>
       <c r="I5" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J5" t="n">
-        <v>83.90000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M5" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="N5" t="n">
         <v>0.375</v>
       </c>
       <c r="O5" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="P5" t="n">
-        <v>23.9</v>
+        <v>24.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.785</v>
+        <v>0.784</v>
       </c>
       <c r="R5" t="n">
         <v>12</v>
       </c>
       <c r="S5" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T5" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U5" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V5" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W5" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
         <v>5.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.1</v>
+        <v>-1.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
@@ -1302,7 +1369,7 @@
         <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
@@ -1311,10 +1378,10 @@
         <v>6</v>
       </c>
       <c r="AK5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL5" t="n">
         <v>22</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>21</v>
       </c>
       <c r="AM5" t="n">
         <v>23</v>
@@ -1323,10 +1390,10 @@
         <v>9</v>
       </c>
       <c r="AO5" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AP5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
         <v>8</v>
@@ -1335,37 +1402,37 @@
         <v>6</v>
       </c>
       <c r="AS5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT5" t="n">
         <v>10</v>
       </c>
       <c r="AU5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AW5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY5" t="n">
         <v>28</v>
       </c>
       <c r="AZ5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB5" t="n">
         <v>12</v>
       </c>
       <c r="BC5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-14-2008-09</t>
+          <t>2009-02-14</t>
         </is>
       </c>
     </row>
@@ -1394,94 +1461,94 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6" t="n">
         <v>40</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8</v>
+        <v>0.784</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="J6" t="n">
-        <v>78.8</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.473</v>
+        <v>0.472</v>
       </c>
       <c r="L6" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="N6" t="n">
-        <v>0.384</v>
+        <v>0.382</v>
       </c>
       <c r="O6" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P6" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R6" t="n">
         <v>10.8</v>
       </c>
       <c r="S6" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T6" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U6" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V6" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="W6" t="n">
         <v>7.6</v>
       </c>
       <c r="X6" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.2</v>
+        <v>100.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
         <v>3</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH6" t="n">
         <v>25</v>
@@ -1490,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="AJ6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AK6" t="n">
         <v>5</v>
@@ -1502,19 +1569,19 @@
         <v>4</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO6" t="n">
         <v>22</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AQ6" t="n">
         <v>23</v>
       </c>
       <c r="AR6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS6" t="n">
         <v>10</v>
@@ -1523,22 +1590,22 @@
         <v>13</v>
       </c>
       <c r="AU6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW6" t="n">
         <v>8</v>
       </c>
       <c r="AX6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY6" t="n">
         <v>4</v>
       </c>
-      <c r="AY6" t="n">
-        <v>5</v>
-      </c>
       <c r="AZ6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA6" t="n">
         <v>21</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-14-2008-09</t>
+          <t>2009-02-14</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>1.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
         <v>9</v>
@@ -1666,7 +1733,7 @@
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI7" t="n">
         <v>6</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-14-2008-09</t>
+          <t>2009-02-14</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1933,7 @@
         <v>16</v>
       </c>
       <c r="AN8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1911,7 +1978,7 @@
         <v>6</v>
       </c>
       <c r="BC8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-14-2008-09</t>
+          <t>2009-02-14</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2069,7 +2136,7 @@
         <v>21</v>
       </c>
       <c r="AU9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2078,7 +2145,7 @@
         <v>26</v>
       </c>
       <c r="AX9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY9" t="n">
         <v>4</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-14-2008-09</t>
+          <t>2009-02-14</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2239,13 +2306,13 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR10" t="n">
         <v>8</v>
       </c>
       <c r="AS10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT10" t="n">
         <v>12</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-14-2008-09</t>
+          <t>2009-02-14</t>
         </is>
       </c>
     </row>
@@ -2424,10 +2491,10 @@
         <v>5</v>
       </c>
       <c r="AR11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
         <v>6</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-14-2008-09</t>
+          <t>2009-02-14</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
         <v>20</v>
@@ -2585,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL12" t="n">
         <v>5</v>
@@ -2609,7 +2676,7 @@
         <v>14</v>
       </c>
       <c r="AS12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT12" t="n">
         <v>3</v>
@@ -2618,7 +2685,7 @@
         <v>4</v>
       </c>
       <c r="AV12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW12" t="n">
         <v>19</v>
@@ -2630,7 +2697,7 @@
         <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
         <v>11</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-14-2008-09</t>
+          <t>2009-02-14</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2825,7 @@
         <v>27</v>
       </c>
       <c r="AH13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI13" t="n">
         <v>25</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-14-2008-09</t>
+          <t>2009-02-14</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E14" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" t="n">
         <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>0.804</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="J14" t="n">
-        <v>84.8</v>
+        <v>84.7</v>
       </c>
       <c r="K14" t="n">
         <v>0.479</v>
@@ -2877,40 +2944,40 @@
         <v>6.9</v>
       </c>
       <c r="M14" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.366</v>
+        <v>0.37</v>
       </c>
       <c r="O14" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="P14" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.766</v>
+        <v>0.767</v>
       </c>
       <c r="R14" t="n">
         <v>12.4</v>
       </c>
       <c r="S14" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T14" t="n">
-        <v>44.1</v>
+        <v>44.2</v>
       </c>
       <c r="U14" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="V14" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W14" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X14" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y14" t="n">
         <v>4.5</v>
@@ -2919,16 +2986,16 @@
         <v>20.3</v>
       </c>
       <c r="AA14" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.9</v>
+        <v>108.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2958,7 +3025,7 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO14" t="n">
         <v>5</v>
@@ -2973,7 +3040,7 @@
         <v>4</v>
       </c>
       <c r="AS14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2982,7 +3049,7 @@
         <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW14" t="n">
         <v>3</v>
@@ -2994,16 +3061,16 @@
         <v>12</v>
       </c>
       <c r="AZ14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-14-2008-09</t>
+          <t>2009-02-14</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6</v>
       </c>
       <c r="AD15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3176,7 +3243,7 @@
         <v>18</v>
       </c>
       <c r="AZ15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA15" t="n">
         <v>9</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-14-2008-09</t>
+          <t>2009-02-14</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>0.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
@@ -3304,7 +3371,7 @@
         <v>14</v>
       </c>
       <c r="AH16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI16" t="n">
         <v>18</v>
@@ -3352,7 +3419,7 @@
         <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY16" t="n">
         <v>6</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-14-2008-09</t>
+          <t>2009-02-14</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E17" t="n">
         <v>26</v>
       </c>
       <c r="F17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G17" t="n">
-        <v>0.481</v>
+        <v>0.473</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
@@ -3414,7 +3481,7 @@
         <v>36.7</v>
       </c>
       <c r="J17" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="K17" t="n">
         <v>0.451</v>
@@ -3423,58 +3490,58 @@
         <v>5.8</v>
       </c>
       <c r="M17" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="N17" t="n">
-        <v>0.358</v>
+        <v>0.359</v>
       </c>
       <c r="O17" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="P17" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.783</v>
+        <v>0.782</v>
       </c>
       <c r="R17" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S17" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="T17" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="U17" t="n">
         <v>21.6</v>
       </c>
       <c r="V17" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W17" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X17" t="n">
         <v>3.7</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3495,7 +3562,7 @@
         <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL17" t="n">
         <v>23</v>
@@ -3504,13 +3571,13 @@
         <v>22</v>
       </c>
       <c r="AN17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO17" t="n">
         <v>7</v>
       </c>
       <c r="AP17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ17" t="n">
         <v>9</v>
@@ -3519,7 +3586,7 @@
         <v>7</v>
       </c>
       <c r="AS17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT17" t="n">
         <v>15</v>
@@ -3537,10 +3604,10 @@
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BA17" t="n">
         <v>4</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-14-2008-09</t>
+          <t>2009-02-14</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3680,7 +3747,7 @@
         <v>29</v>
       </c>
       <c r="AL18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM18" t="n">
         <v>18</v>
@@ -3725,7 +3792,7 @@
         <v>19</v>
       </c>
       <c r="BA18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB18" t="n">
         <v>17</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-14-2008-09</t>
+          <t>2009-02-14</t>
         </is>
       </c>
     </row>
@@ -3844,7 +3911,7 @@
         <v>18</v>
       </c>
       <c r="AF19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
         <v>18</v>
@@ -3892,10 +3959,10 @@
         <v>28</v>
       </c>
       <c r="AV19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX19" t="n">
         <v>21</v>
@@ -3913,7 +3980,7 @@
         <v>19</v>
       </c>
       <c r="BC19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-14-2008-09</t>
+          <t>2009-02-14</t>
         </is>
       </c>
     </row>
@@ -4020,13 +4087,13 @@
         <v>2.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE20" t="n">
         <v>11</v>
       </c>
       <c r="AF20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG20" t="n">
         <v>9</v>
@@ -4050,7 +4117,7 @@
         <v>10</v>
       </c>
       <c r="AN20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO20" t="n">
         <v>20</v>
@@ -4083,7 +4150,7 @@
         <v>22</v>
       </c>
       <c r="AY20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ20" t="n">
         <v>14</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-14-2008-09</t>
+          <t>2009-02-14</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
@@ -4232,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO21" t="n">
         <v>23</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-14-2008-09</t>
+          <t>2009-02-14</t>
         </is>
       </c>
     </row>
@@ -4405,7 +4472,7 @@
         <v>9</v>
       </c>
       <c r="AK22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL22" t="n">
         <v>30</v>
@@ -4435,7 +4502,7 @@
         <v>4</v>
       </c>
       <c r="AU22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-14-2008-09</t>
+          <t>2009-02-14</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>8.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4578,7 +4645,7 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
         <v>20</v>
@@ -4641,7 +4708,7 @@
         <v>8</v>
       </c>
       <c r="BC23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-14-2008-09</t>
+          <t>2009-02-14</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>1.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -4760,7 +4827,7 @@
         <v>15</v>
       </c>
       <c r="AH24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI24" t="n">
         <v>14</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-14-2008-09</t>
+          <t>2009-02-14</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>0.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-14-2008-09</t>
+          <t>2009-02-14</t>
         </is>
       </c>
     </row>
@@ -5034,55 +5101,55 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E26" t="n">
         <v>32</v>
       </c>
       <c r="F26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G26" t="n">
-        <v>0.627</v>
+        <v>0.615</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J26" t="n">
-        <v>78.59999999999999</v>
+        <v>78.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.464</v>
+        <v>0.462</v>
       </c>
       <c r="L26" t="n">
         <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.383</v>
+        <v>0.384</v>
       </c>
       <c r="O26" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="P26" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.763</v>
+        <v>0.761</v>
       </c>
       <c r="R26" t="n">
         <v>13.1</v>
       </c>
       <c r="S26" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="T26" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U26" t="n">
         <v>20.3</v>
@@ -5097,22 +5164,22 @@
         <v>4.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z26" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="AA26" t="n">
         <v>21.2</v>
       </c>
-      <c r="AA26" t="n">
-        <v>21.3</v>
-      </c>
       <c r="AB26" t="n">
-        <v>99.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5124,13 +5191,13 @@
         <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
         <v>17</v>
       </c>
       <c r="AJ26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK26" t="n">
         <v>8</v>
@@ -5142,16 +5209,16 @@
         <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP26" t="n">
         <v>16</v>
       </c>
-      <c r="AP26" t="n">
-        <v>14</v>
-      </c>
       <c r="AQ26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5160,22 +5227,22 @@
         <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV26" t="n">
         <v>7</v>
       </c>
       <c r="AW26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ26" t="n">
         <v>17</v>
@@ -5184,10 +5251,10 @@
         <v>12</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-14-2008-09</t>
+          <t>2009-02-14</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
         <v>29</v>
@@ -5360,13 +5427,13 @@
         <v>20</v>
       </c>
       <c r="AZ27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA27" t="n">
         <v>10</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-14-2008-09</t>
+          <t>2009-02-14</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
@@ -5521,7 +5588,7 @@
         <v>29</v>
       </c>
       <c r="AS28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT28" t="n">
         <v>22</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-14-2008-09</t>
+          <t>2009-02-14</t>
         </is>
       </c>
     </row>
@@ -5718,7 +5785,7 @@
         <v>29</v>
       </c>
       <c r="AX29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY29" t="n">
         <v>11</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-14-2008-09</t>
+          <t>2009-02-14</t>
         </is>
       </c>
     </row>
@@ -5885,10 +5952,10 @@
         <v>10</v>
       </c>
       <c r="AS30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-14-2008-09</t>
+          <t>2009-02-14</t>
         </is>
       </c>
     </row>
@@ -6061,7 +6128,7 @@
         <v>28</v>
       </c>
       <c r="AQ31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR31" t="n">
         <v>9</v>
@@ -6079,7 +6146,7 @@
         <v>12</v>
       </c>
       <c r="AW31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX31" t="n">
         <v>27</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-14-2008-09</t>
+          <t>2009-02-14</t>
         </is>
       </c>
     </row>
